--- a/RancanganDatabase_ATM_EzharMahesa.xlsx
+++ b/RancanganDatabase_ATM_EzharMahesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMKN 10\Documents\ezharmahesa-XIIPRL\11_PTS_ATM_EzharMahesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37EAB36-E8AD-4C7A-978A-728363C526D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2950997A-65F3-4F75-BF8B-7EA5D448297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECEA906B-9369-4F06-B17F-69CFADB10276}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
